--- a/NformTester/NformTester/Keywordscripts/600.20.30.10_ConfigureEmailAction.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.10_ConfigureEmailAction.xlsx
@@ -4204,6 +4204,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>"{CONTROL down}{Akey}{CONTROL up}"</t>
+  </si>
+  <si>
+    <t>;Delete this E-mail action.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Delete devices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormManaged_Devices</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Delete the added SMTP.</t>
+  </si>
+  <si>
+    <t>FormConfirmActionSetDelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"my test smtp"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SMTP_Server$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_SearchStart$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SMTP_Sender$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SMTP_Receiver$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"action-email"</t>
+  </si>
+  <si>
     <t>Devices_tree</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4212,6 +4269,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>$SNMP_SearchStart_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Select</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4236,9 +4297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"{CONTROL down}{Akey}{CONTROL up}"</t>
-  </si>
-  <si>
     <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4259,70 +4317,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Alarms</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Delete this E-mail action.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Delete devices</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pause</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormManaged_Devices</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Delete the added SMTP.</t>
-  </si>
-  <si>
-    <t>FormConfirmActionSetDelete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"my test smtp"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SMTP_Server$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_SearchStart$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_SearchStart_0$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SMTP_Sender$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SMTP_Receiver$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_SearchStart_0$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"action-email"</t>
   </si>
 </sst>
 </file>
@@ -4569,7 +4569,35 @@
     <cellStyle name="常规 2 2" xfId="2"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4586,6 +4614,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -4597,7 +4693,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4876,8 +4972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B60" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5017,7 +5113,7 @@
         <v>902</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>963</v>
+        <v>949</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>903</v>
@@ -5190,7 +5286,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>961</v>
+        <v>947</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="4"/>
@@ -5248,7 +5344,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>962</v>
+        <v>948</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -5392,7 +5488,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>965</v>
+        <v>950</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -5450,7 +5546,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>965</v>
+        <v>950</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -5642,7 +5738,7 @@
         <v>4</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>968</v>
+        <v>952</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -5904,7 +6000,7 @@
         <v>4</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>966</v>
+        <v>951</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -6398,7 +6494,7 @@
         <v>53</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>968</v>
+        <v>952</v>
       </c>
       <c r="I55" s="18"/>
       <c r="J55" s="18"/>
@@ -6466,16 +6562,16 @@
         <v>500</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>938</v>
+        <v>953</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>939</v>
+        <v>954</v>
       </c>
       <c r="H58" s="18">
         <v>2</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="J58" s="18"/>
       <c r="K58" s="18"/>
@@ -6497,10 +6593,10 @@
         <v>502</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>940</v>
+        <v>956</v>
       </c>
       <c r="H59" s="18" t="s">
-        <v>941</v>
+        <v>957</v>
       </c>
       <c r="I59" s="18"/>
       <c r="J59" s="18"/>
@@ -6520,13 +6616,13 @@
         <v>500</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>942</v>
+        <v>958</v>
       </c>
       <c r="G60" s="18" t="s">
         <v>53</v>
       </c>
       <c r="H60" s="18" t="s">
-        <v>943</v>
+        <v>959</v>
       </c>
       <c r="I60" s="18"/>
       <c r="J60" s="18"/>
@@ -6612,7 +6708,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>944</v>
+        <v>960</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -6663,7 +6759,7 @@
         <v>25</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>945</v>
+        <v>961</v>
       </c>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
@@ -6714,7 +6810,7 @@
         <v>3</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
@@ -6752,10 +6848,10 @@
         <v>69</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>947</v>
+        <v>962</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>948</v>
+        <v>963</v>
       </c>
       <c r="F70" s="4">
         <v>2</v>
@@ -6774,7 +6870,7 @@
         <v>70</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>949</v>
+        <v>964</v>
       </c>
       <c r="E71" s="11"/>
       <c r="F71" s="18"/>
@@ -6822,7 +6918,7 @@
         <v>18</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>950</v>
+        <v>965</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>2</v>
@@ -6852,7 +6948,7 @@
         <v>53</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
@@ -6962,7 +7058,7 @@
         <v>78</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>951</v>
+        <v>966</v>
       </c>
       <c r="E79" s="11"/>
       <c r="F79" s="4"/>
@@ -6980,7 +7076,7 @@
         <v>79</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>908</v>
+        <v>967</v>
       </c>
       <c r="E80" s="11" t="s">
         <v>18</v>
@@ -7004,13 +7100,13 @@
         <v>80</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>908</v>
+        <v>967</v>
       </c>
       <c r="E81" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>952</v>
+        <v>968</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>2</v>
@@ -7028,7 +7124,7 @@
         <v>81</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>908</v>
+        <v>967</v>
       </c>
       <c r="E82" s="11" t="s">
         <v>18</v>
@@ -7056,7 +7152,7 @@
         <v>82</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>908</v>
+        <v>967</v>
       </c>
       <c r="E83" s="11" t="s">
         <v>18</v>
@@ -7080,10 +7176,10 @@
         <v>83</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>947</v>
+        <v>962</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>948</v>
+        <v>963</v>
       </c>
       <c r="F84" s="4">
         <v>2</v>
@@ -7114,7 +7210,7 @@
         <v>57</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>968</v>
+        <v>952</v>
       </c>
       <c r="I85" s="11"/>
       <c r="J85" s="4"/>
@@ -7152,7 +7248,7 @@
         <v>86</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>953</v>
+        <v>939</v>
       </c>
       <c r="E87" s="18"/>
       <c r="F87" s="18"/>
@@ -7230,7 +7326,7 @@
         <v>53</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>968</v>
+        <v>952</v>
       </c>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
@@ -7432,7 +7528,7 @@
         <v>53</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>968</v>
+        <v>952</v>
       </c>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
@@ -7473,7 +7569,7 @@
         <v>930</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>960</v>
+        <v>946</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>298</v>
@@ -7540,7 +7636,7 @@
         <v>102</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="E103" s="11"/>
       <c r="F103" s="4"/>
@@ -7558,10 +7654,10 @@
         <v>103</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>955</v>
+        <v>941</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>956</v>
+        <v>942</v>
       </c>
       <c r="F104" s="18">
         <v>5</v>
@@ -7604,7 +7700,7 @@
         <v>105</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>957</v>
+        <v>943</v>
       </c>
       <c r="E106" s="11" t="s">
         <v>18</v>
@@ -7628,10 +7724,10 @@
         <v>106</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>957</v>
+        <v>943</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>958</v>
+        <v>944</v>
       </c>
       <c r="F107" s="18" t="s">
         <v>696</v>
@@ -7640,7 +7736,7 @@
         <v>3</v>
       </c>
       <c r="H107" s="18" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="I107" s="18"/>
       <c r="J107" s="18"/>
@@ -7654,10 +7750,10 @@
         <v>107</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>957</v>
+        <v>943</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>958</v>
+        <v>944</v>
       </c>
       <c r="F108" s="18" t="s">
         <v>256</v>
@@ -7678,7 +7774,7 @@
         <v>108</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>957</v>
+        <v>943</v>
       </c>
       <c r="E109" s="18" t="s">
         <v>703</v>
@@ -7702,10 +7798,10 @@
         <v>109</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>957</v>
+        <v>943</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>958</v>
+        <v>944</v>
       </c>
       <c r="F110" s="18" t="s">
         <v>98</v>
@@ -7729,7 +7825,7 @@
         <v>932</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>956</v>
+        <v>942</v>
       </c>
       <c r="F111" s="18">
         <v>3</v>
@@ -7748,7 +7844,7 @@
         <v>111</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>959</v>
+        <v>945</v>
       </c>
       <c r="E112" s="11"/>
       <c r="F112" s="4"/>
@@ -7940,21 +8036,29 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N119">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N53:N86">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F69 F71:F83 F85:F119">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F85:F119 F2:F69 F71:F83">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G108:G119 G2:G106">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D113:D119 D80:D86 D72:D78 D97:D102 D88:D94 D105 D111 D22:D51 D3 D53:D63 D65:D70 D6:D20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D113:D119 D3 D6:D20 D97:D102 D88:D94 D105 D111 D22:D51 D80:D86 D72:D78 D53:D63 D65:D70">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E119">

--- a/NformTester/NformTester/Keywordscripts/600.20.30.10_ConfigureEmailAction.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.10_ConfigureEmailAction.xlsx
@@ -1359,7 +1359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8621" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8633" uniqueCount="969">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4569,7 +4569,21 @@
     <cellStyle name="常规 2 2" xfId="2"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4614,74 +4628,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -4693,7 +4639,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4970,10 +4916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5182,7 +5128,7 @@
         <v>909</v>
       </c>
       <c r="B7" s="7">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -7522,14 +7468,12 @@
         <v>412</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>415</v>
+        <v>98</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H98" s="11" t="s">
-        <v>952</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
@@ -7542,13 +7486,13 @@
         <v>98</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>930</v>
-      </c>
-      <c r="E99" s="11" t="s">
-        <v>412</v>
+        <v>908</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>256</v>
+        <v>159</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>2</v>
@@ -7566,13 +7510,13 @@
         <v>99</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>930</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>946</v>
+        <v>908</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>298</v>
+        <v>78</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>2</v>
@@ -7590,16 +7534,20 @@
         <v>100</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>876</v>
-      </c>
-      <c r="F101" s="4">
-        <v>5</v>
-      </c>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
+        <v>412</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H101" s="11" t="s">
+        <v>952</v>
+      </c>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
@@ -7618,7 +7566,7 @@
         <v>412</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>98</v>
+        <v>256</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>2</v>
@@ -7631,16 +7579,22 @@
       <c r="M102" s="4"/>
       <c r="N102" s="6"/>
     </row>
-    <row r="103" spans="3:14" ht="15">
+    <row r="103" spans="3:14">
       <c r="C103" s="4">
         <v>102</v>
       </c>
-      <c r="D103" s="5" t="s">
-        <v>940</v>
-      </c>
-      <c r="E103" s="11"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
+      <c r="D103" s="8" t="s">
+        <v>930</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
@@ -7653,91 +7607,81 @@
       <c r="C104" s="4">
         <v>103</v>
       </c>
-      <c r="D104" s="17" t="s">
-        <v>941</v>
+      <c r="D104" s="8" t="s">
+        <v>932</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>942</v>
-      </c>
-      <c r="F104" s="18">
-        <v>5</v>
-      </c>
-      <c r="G104" s="18"/>
-      <c r="H104" s="18"/>
-      <c r="I104" s="18"/>
-      <c r="J104" s="18"/>
-      <c r="K104" s="18"/>
-      <c r="L104" s="18"/>
-      <c r="M104" s="18"/>
-      <c r="N104" s="20"/>
+        <v>876</v>
+      </c>
+      <c r="F104" s="4">
+        <v>5</v>
+      </c>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="6"/>
     </row>
     <row r="105" spans="3:14">
       <c r="C105" s="4">
         <v>104</v>
       </c>
-      <c r="D105" s="17" t="s">
+      <c r="D105" s="8" t="s">
         <v>930</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F105" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="G105" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H105" s="11"/>
-      <c r="I105" s="11"/>
-      <c r="J105" s="18"/>
-      <c r="K105" s="18"/>
-      <c r="L105" s="18"/>
-      <c r="M105" s="18"/>
-      <c r="N105" s="20"/>
+        <v>412</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="6"/>
     </row>
-    <row r="106" spans="3:14">
+    <row r="106" spans="3:14" ht="15">
       <c r="C106" s="4">
         <v>105</v>
       </c>
-      <c r="D106" s="17" t="s">
-        <v>943</v>
-      </c>
-      <c r="E106" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F106" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="G106" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H106" s="11"/>
-      <c r="I106" s="11"/>
-      <c r="J106" s="18"/>
-      <c r="K106" s="18"/>
-      <c r="L106" s="18"/>
-      <c r="M106" s="18"/>
-      <c r="N106" s="20"/>
+      <c r="D106" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="E106" s="11"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="6"/>
     </row>
     <row r="107" spans="3:14">
       <c r="C107" s="4">
         <v>106</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>944</v>
-      </c>
-      <c r="F107" s="18" t="s">
-        <v>696</v>
-      </c>
-      <c r="G107" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H107" s="18" t="s">
-        <v>938</v>
-      </c>
+        <v>942</v>
+      </c>
+      <c r="F107" s="18">
+        <v>5</v>
+      </c>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
       <c r="I107" s="18"/>
       <c r="J107" s="18"/>
       <c r="K107" s="18"/>
@@ -7745,24 +7689,24 @@
       <c r="M107" s="18"/>
       <c r="N107" s="20"/>
     </row>
-    <row r="108" spans="3:14" ht="14.25">
+    <row r="108" spans="3:14">
       <c r="C108" s="4">
         <v>107</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>943</v>
+        <v>930</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>944</v>
+        <v>18</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>256</v>
+        <v>159</v>
       </c>
       <c r="G108" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H108" s="22"/>
-      <c r="I108" s="18"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
       <c r="J108" s="18"/>
       <c r="K108" s="18"/>
       <c r="L108" s="18"/>
@@ -7776,17 +7720,17 @@
       <c r="D109" s="17" t="s">
         <v>943</v>
       </c>
-      <c r="E109" s="18" t="s">
-        <v>703</v>
+      <c r="E109" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>298</v>
+        <v>77</v>
       </c>
       <c r="G109" s="18" t="s">
         <v>2</v>
       </c>
       <c r="H109" s="11"/>
-      <c r="I109" s="18"/>
+      <c r="I109" s="11"/>
       <c r="J109" s="18"/>
       <c r="K109" s="18"/>
       <c r="L109" s="18"/>
@@ -7804,34 +7748,38 @@
         <v>944</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>98</v>
+        <v>696</v>
       </c>
       <c r="G110" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H110" s="11"/>
-      <c r="I110" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="H110" s="18" t="s">
+        <v>938</v>
+      </c>
+      <c r="I110" s="18"/>
       <c r="J110" s="18"/>
       <c r="K110" s="18"/>
       <c r="L110" s="18"/>
       <c r="M110" s="18"/>
       <c r="N110" s="20"/>
     </row>
-    <row r="111" spans="3:14">
+    <row r="111" spans="3:14" ht="14.25">
       <c r="C111" s="4">
         <v>110</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>932</v>
+        <v>943</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>942</v>
-      </c>
-      <c r="F111" s="18">
-        <v>3</v>
-      </c>
-      <c r="G111" s="18"/>
-      <c r="H111" s="18"/>
+        <v>944</v>
+      </c>
+      <c r="F111" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="G111" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H111" s="22"/>
       <c r="I111" s="18"/>
       <c r="J111" s="18"/>
       <c r="K111" s="18"/>
@@ -7839,90 +7787,88 @@
       <c r="M111" s="18"/>
       <c r="N111" s="20"/>
     </row>
-    <row r="112" spans="3:14" ht="15">
+    <row r="112" spans="3:14">
       <c r="C112" s="4">
         <v>111</v>
       </c>
-      <c r="D112" s="5" t="s">
-        <v>945</v>
-      </c>
-      <c r="E112" s="11"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
-      <c r="K112" s="4"/>
-      <c r="L112" s="4"/>
-      <c r="M112" s="4"/>
-      <c r="N112" s="6"/>
+      <c r="D112" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="E112" s="18" t="s">
+        <v>703</v>
+      </c>
+      <c r="F112" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="G112" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H112" s="11"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="18"/>
+      <c r="K112" s="18"/>
+      <c r="L112" s="18"/>
+      <c r="M112" s="18"/>
+      <c r="N112" s="20"/>
     </row>
     <row r="113" spans="3:14">
       <c r="C113" s="4">
         <v>112</v>
       </c>
-      <c r="D113" s="8" t="s">
-        <v>930</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G113" s="4" t="s">
+      <c r="D113" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>944</v>
+      </c>
+      <c r="F113" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G113" s="18" t="s">
         <v>2</v>
       </c>
       <c r="H113" s="11"/>
-      <c r="I113" s="4"/>
-      <c r="J113" s="4"/>
-      <c r="K113" s="4"/>
-      <c r="L113" s="4"/>
-      <c r="M113" s="4"/>
-      <c r="N113" s="6"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="18"/>
+      <c r="K113" s="18"/>
+      <c r="L113" s="18"/>
+      <c r="M113" s="18"/>
+      <c r="N113" s="20"/>
     </row>
     <row r="114" spans="3:14">
       <c r="C114" s="4">
         <v>113</v>
       </c>
-      <c r="D114" s="8" t="s">
-        <v>930</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H114" s="11"/>
-      <c r="I114" s="4"/>
-      <c r="J114" s="4"/>
-      <c r="K114" s="4"/>
-      <c r="L114" s="4"/>
-      <c r="M114" s="4"/>
-      <c r="N114" s="6"/>
+      <c r="D114" s="17" t="s">
+        <v>932</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>942</v>
+      </c>
+      <c r="F114" s="18">
+        <v>3</v>
+      </c>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
+      <c r="I114" s="18"/>
+      <c r="J114" s="18"/>
+      <c r="K114" s="18"/>
+      <c r="L114" s="18"/>
+      <c r="M114" s="18"/>
+      <c r="N114" s="20"/>
     </row>
-    <row r="115" spans="3:14">
+    <row r="115" spans="3:14" ht="15">
       <c r="C115" s="4">
         <v>114</v>
       </c>
-      <c r="D115" s="8" t="s">
-        <v>930</v>
-      </c>
-      <c r="E115" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="G115" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H115" s="11"/>
-      <c r="I115" s="11"/>
+      <c r="D115" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="E115" s="11"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
@@ -7936,19 +7882,17 @@
       <c r="D116" s="8" t="s">
         <v>930</v>
       </c>
-      <c r="E116" s="11" t="s">
-        <v>506</v>
+      <c r="E116" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>551</v>
+        <v>159</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H116" s="11" t="s">
-        <v>913</v>
-      </c>
-      <c r="I116" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="H116" s="11"/>
+      <c r="I116" s="4"/>
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
@@ -7962,24 +7906,18 @@
       <c r="D117" s="8" t="s">
         <v>930</v>
       </c>
-      <c r="E117" s="11" t="s">
-        <v>506</v>
+      <c r="E117" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>549</v>
+        <v>82</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H117" s="11" t="s">
-        <v>928</v>
-      </c>
-      <c r="I117" s="4" t="s">
-        <v>929</v>
-      </c>
-      <c r="J117" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H117" s="11"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
       <c r="M117" s="4"/>
@@ -7996,7 +7934,7 @@
         <v>506</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>2</v>
@@ -8020,22 +7958,102 @@
         <v>506</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>98</v>
+        <v>551</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H119" s="4"/>
-      <c r="I119" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>913</v>
+      </c>
+      <c r="I119" s="11"/>
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
       <c r="M119" s="4"/>
       <c r="N119" s="6"/>
     </row>
+    <row r="120" spans="3:14">
+      <c r="C120" s="4">
+        <v>119</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>930</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>928</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="J120" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="6"/>
+    </row>
+    <row r="121" spans="3:14">
+      <c r="C121" s="4">
+        <v>120</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>930</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H121" s="11"/>
+      <c r="I121" s="11"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="6"/>
+    </row>
+    <row r="122" spans="3:14">
+      <c r="C122" s="4">
+        <v>121</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>930</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="4"/>
+      <c r="N122" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N119">
+  <conditionalFormatting sqref="N2:N122">
     <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -8052,16 +8070,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F85:F119 F2:F69 F71:F83">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F71:F83 F2:F69 F85:F122">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G108:G119 G2:G106">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G111:G122 G2:G109">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D113:D119 D3 D6:D20 D97:D102 D88:D94 D105 D111 D22:D51 D80:D86 D72:D78 D53:D63 D65:D70">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D116:D122 D3 D6:D20 D65:D70 D88:D94 D108 D114 D22:D51 D80:D86 D72:D78 D53:D63 D97:D105">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E119">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E122">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/Keywordscripts/600.20.30.10_ConfigureEmailAction.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.10_ConfigureEmailAction.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="14355"/>
@@ -1354,7 +1354,7 @@
     <definedName name="VerifyTxtfileValues">'Form DataValDepend'!$CN$1</definedName>
     <definedName name="VerifyTxtfileValuesCol">'Form DataValDepend'!$CN:$CN</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -4269,10 +4269,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_SearchStart_0$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Select</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4322,6 +4318,10 @@
   </si>
   <si>
     <t>Alarms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SearchStart_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4564,40 +4564,12 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="2"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -4632,7 +4604,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4918,8 +4890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6517,7 +6489,7 @@
         <v>2</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>955</v>
+        <v>968</v>
       </c>
       <c r="J58" s="18"/>
       <c r="K58" s="18"/>
@@ -6539,10 +6511,10 @@
         <v>502</v>
       </c>
       <c r="G59" s="18" t="s">
+        <v>955</v>
+      </c>
+      <c r="H59" s="18" t="s">
         <v>956</v>
-      </c>
-      <c r="H59" s="18" t="s">
-        <v>957</v>
       </c>
       <c r="I59" s="18"/>
       <c r="J59" s="18"/>
@@ -6562,13 +6534,13 @@
         <v>500</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G60" s="18" t="s">
         <v>53</v>
       </c>
       <c r="H60" s="18" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I60" s="18"/>
       <c r="J60" s="18"/>
@@ -6654,7 +6626,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -6705,7 +6677,7 @@
         <v>25</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
@@ -6794,10 +6766,10 @@
         <v>69</v>
       </c>
       <c r="D70" s="8" t="s">
+        <v>961</v>
+      </c>
+      <c r="E70" s="11" t="s">
         <v>962</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>963</v>
       </c>
       <c r="F70" s="4">
         <v>2</v>
@@ -6816,7 +6788,7 @@
         <v>70</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E71" s="11"/>
       <c r="F71" s="18"/>
@@ -6864,7 +6836,7 @@
         <v>18</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>2</v>
@@ -6893,8 +6865,8 @@
       <c r="G74" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H74" s="4" t="s">
-        <v>955</v>
+      <c r="H74" s="18" t="s">
+        <v>968</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
@@ -7004,7 +6976,7 @@
         <v>78</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E79" s="11"/>
       <c r="F79" s="4"/>
@@ -7022,7 +6994,7 @@
         <v>79</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E80" s="11" t="s">
         <v>18</v>
@@ -7046,13 +7018,13 @@
         <v>80</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E81" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>2</v>
@@ -7070,7 +7042,7 @@
         <v>81</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E82" s="11" t="s">
         <v>18</v>
@@ -7098,7 +7070,7 @@
         <v>82</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E83" s="11" t="s">
         <v>18</v>
@@ -7122,10 +7094,10 @@
         <v>83</v>
       </c>
       <c r="D84" s="8" t="s">
+        <v>961</v>
+      </c>
+      <c r="E84" s="11" t="s">
         <v>962</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>963</v>
       </c>
       <c r="F84" s="4">
         <v>2</v>
@@ -8054,18 +8026,18 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N122">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N53:N86">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
